--- a/project_result/csv_file/21type.xlsx
+++ b/project_result/csv_file/21type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anyware\PycharmProjects\DCX_Mid_Project\HJ_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36271564-2225-4A7D-8C1B-41DDDC108EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA48E129-3B9E-4029-8073-8F6D24A86640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13065" yWindow="0" windowWidth="11715" windowHeight="15585" xr2:uid="{8C6D3E57-8656-4FFC-A642-7515622BC5D4}"/>
+    <workbookView xWindow="17055" yWindow="0" windowWidth="10725" windowHeight="14850" xr2:uid="{8C6D3E57-8656-4FFC-A642-7515622BC5D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무게 kg (1개 기준)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>길이cm (1개 기준)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22cm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9cm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,74 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>80cm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.14kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.35kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.06kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.07kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.02kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.0025kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.15kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.12kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.45kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고추</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,6 +195,82 @@
   </si>
   <si>
     <t>목심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>375g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>178g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>550g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무게 g (1개 기준)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +644,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:G16"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -661,11 +661,11 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="1"/>
@@ -676,15 +676,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="1"/>
@@ -695,15 +695,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
@@ -714,15 +714,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1"/>
@@ -733,15 +733,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
@@ -752,15 +752,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="1"/>
@@ -771,15 +771,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="1"/>
@@ -790,15 +790,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="1"/>
@@ -809,15 +809,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
@@ -828,15 +828,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="1"/>
@@ -847,15 +847,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
@@ -866,15 +866,15 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="1"/>
@@ -885,15 +885,15 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
@@ -904,15 +904,15 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="1"/>
@@ -923,15 +923,15 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
@@ -942,15 +942,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="1"/>
@@ -961,15 +961,15 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
@@ -980,15 +980,15 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="1"/>
@@ -999,15 +999,15 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="1"/>
@@ -1018,15 +1018,15 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="1"/>
@@ -1037,15 +1037,15 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="1"/>
@@ -1056,15 +1056,15 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="1"/>
@@ -1085,35 +1085,34 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -1126,34 +1125,35 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
